--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE104F-EE23-4B5D-83AB-EAEB9E4F456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D2A3A-69BE-4C95-A6C6-C623149A114B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcesoActualizacionDatosMasivo" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>System.getProperty("user.dir") + "/src/Excel/entregable2/Mod_Masiva_Clientes_PN_18.csv";</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>20230510 14:00 1D</t>
+  </si>
+  <si>
+    <t>1234566</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 10:40:10</t>
+  </si>
+  <si>
+    <t>ACHACALTANASP1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -35,12 +76,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +393,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D2A3A-69BE-4C95-A6C6-C623149A114B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E40BAC-2DC2-4A01-8C7A-D6A3B89A13C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -42,9 +42,6 @@
     <t>archivo</t>
   </si>
   <si>
-    <t>System.getProperty("user.dir") + "/src/Excel/entregable2/Mod_Masiva_Clientes_PN_18.csv";</t>
-  </si>
-  <si>
     <t>frecuencia</t>
   </si>
   <si>
@@ -61,12 +58,22 @@
   </si>
   <si>
     <t>ACHACALTANASP1</t>
+  </si>
+  <si>
+    <t>/src/Excel/entregable2/Mod_Masiva_Clientes_PN_18.csv</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>28 jun. 2023, 14:38:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,16 +403,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="79.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="48.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -419,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -430,22 +437,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>28 jun. 2023, 14:38:44</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 17:09:32</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E40BAC-2DC2-4A01-8C7A-D6A3B89A13C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC3F4F-177C-41A0-9E6C-C5CAD491E096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>usuario</t>
   </si>
@@ -51,32 +51,22 @@
     <t>1234566</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 10:40:10</t>
-  </si>
-  <si>
-    <t>ACHACALTANASP1</t>
-  </si>
-  <si>
     <t>/src/Excel/entregable2/Mod_Masiva_Clientes_PN_18.csv</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>28 jun. 2023, 14:38:44</t>
-  </si>
-  <si>
     <t>9 ago. 2023, 17:09:32</t>
+  </si>
+  <si>
+    <t>ACHACALTAGD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,16 +396,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="48.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -440,22 +430,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC3F4F-177C-41A0-9E6C-C5CAD491E096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E3653-FEEC-4DCE-B043-16DC2026619C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>1234566</t>
   </si>
   <si>
-    <t>/src/Excel/entregable2/Mod_Masiva_Clientes_PN_18.csv</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>ACHACALTAGD1</t>
+  </si>
+  <si>
+    <t>/src/Excel/entregable2/1008actualizaciondedatos.csv</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,22 +430,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
+++ b/src/Excel/entregable2/ProcesoActualizacionDatosMasivos.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E3653-FEEC-4DCE-B043-16DC2026619C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1E911-F6AC-4846-B79B-D7288F029BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -42,31 +42,53 @@
     <t>archivo</t>
   </si>
   <si>
-    <t>frecuencia</t>
-  </si>
-  <si>
-    <t>20230510 14:00 1D</t>
-  </si>
-  <si>
     <t>1234566</t>
   </si>
   <si>
+    <t>ACHACALTAGD1</t>
+  </si>
+  <si>
+    <t>/src/Excel/entregable2/1008actualizaciondedatos.csv</t>
+  </si>
+  <si>
+    <t>usuario servicio</t>
+  </si>
+  <si>
+    <t>cvelasco</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:16:10</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:32:22</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:37:44</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:39:28</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:52:58</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 15:58:07</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>9 ago. 2023, 17:09:32</t>
-  </si>
-  <si>
-    <t>ACHACALTAGD1</t>
-  </si>
-  <si>
-    <t>/src/Excel/entregable2/1008actualizaciondedatos.csv</t>
+    <t>11 ago. 2023, 16:02:38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +423,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="48.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -419,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -430,22 +452,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
